--- a/pa-temp-fix-system.com/php/export/product_sku存在币种属性值为false的.xlsx
+++ b/pa-temp-fix-system.com/php/export/product_sku存在币种属性值为false的.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>productid</t>
   </si>
@@ -38,109 +38,28 @@
     <t>channel</t>
   </si>
   <si>
-    <t>a24052500ux0839</t>
+    <t>a23100800ux0272</t>
   </si>
   <si>
     <t>amazon_it</t>
   </si>
   <si>
-    <t>a24052100ux1245</t>
+    <t>a23100800ux0271</t>
   </si>
   <si>
-    <t>a23040300ux0820</t>
+    <t>a23100800ux0270</t>
   </si>
   <si>
-    <t>a23040300ux0819</t>
+    <t>a23100800ux0269</t>
   </si>
   <si>
-    <t>a25040800ux0347</t>
+    <t>a23100800ux0267</t>
   </si>
   <si>
-    <t>a25040800ux0346</t>
+    <t>a23100800ux0266</t>
   </si>
   <si>
-    <t>a25040800ux0345</t>
-  </si>
-  <si>
-    <t>a25040800ux0344</t>
-  </si>
-  <si>
-    <t>a25040800ux0343</t>
-  </si>
-  <si>
-    <t>a25040800ux0342</t>
-  </si>
-  <si>
-    <t>a25040800ux0341</t>
-  </si>
-  <si>
-    <t>a25040800ux0340</t>
-  </si>
-  <si>
-    <t>a25040800ux0339</t>
-  </si>
-  <si>
-    <t>a25040800ux0338</t>
-  </si>
-  <si>
-    <t>a25041400ux3208</t>
-  </si>
-  <si>
-    <t>a25041400ux3203</t>
-  </si>
-  <si>
-    <t>a25041400ux3201</t>
-  </si>
-  <si>
-    <t>a25041400ux3197</t>
-  </si>
-  <si>
-    <t>a25041400ux3195</t>
-  </si>
-  <si>
-    <t>a25041400ux3193</t>
-  </si>
-  <si>
-    <t>a25041400ux3192</t>
-  </si>
-  <si>
-    <t>a25041400ux3191</t>
-  </si>
-  <si>
-    <t>a25040800ux0361</t>
-  </si>
-  <si>
-    <t>a25040800ux0360</t>
-  </si>
-  <si>
-    <t>a25040800ux0359</t>
-  </si>
-  <si>
-    <t>a25040800ux0358</t>
-  </si>
-  <si>
-    <t>a25040800ux0355</t>
-  </si>
-  <si>
-    <t>a25040800ux0354</t>
-  </si>
-  <si>
-    <t>a25040800ux0353</t>
-  </si>
-  <si>
-    <t>a25040800ux0352</t>
-  </si>
-  <si>
-    <t>a25040800ux0351</t>
-  </si>
-  <si>
-    <t>a25040800ux0350</t>
-  </si>
-  <si>
-    <t>a25040800ux0349</t>
-  </si>
-  <si>
-    <t>a25040800ux0348</t>
+    <t>a23100800ux0263</t>
   </si>
 </sst>
 </file>
@@ -153,7 +72,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -165,9 +84,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FF171A1D"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="“Helvetica Neue”"/>
       <charset val="134"/>
     </font>
     <font>
@@ -630,16 +555,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,124 +570,128 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1299,13 +1225,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1319,275 +1245,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="18" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="18" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" ht="18" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" ht="18" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="18" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="18" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="18" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" ht="18" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="18" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="18" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="18" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" ht="18" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="18" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" ht="18" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" ht="18" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" ht="18" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" ht="18" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="18" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" ht="18" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="18" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" ht="18" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" ht="18" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" ht="18" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" ht="18" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/pa-temp-fix-system.com/php/export/product_sku存在币种属性值为false的.xlsx
+++ b/pa-temp-fix-system.com/php/export/product_sku存在币种属性值为false的.xlsx
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="1"/>

--- a/pa-temp-fix-system.com/php/export/product_sku存在币种属性值为false的.xlsx
+++ b/pa-temp-fix-system.com/php/export/product_sku存在币种属性值为false的.xlsx
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="1"/>
